--- a/src/samples/NetCore/iXlsxWriter.ConsoleAppCoreAsync/Output/Sample-22/Sample-22.xlsx
+++ b/src/samples/NetCore/iXlsxWriter.ConsoleAppCoreAsync/Output/Sample-22/Sample-22.xlsx
@@ -103,7 +103,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0;[Black]\-#,##0.0"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -134,110 +136,66 @@
   </borders>
   <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="3" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="2" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="3" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="4" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="5" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="6" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="7" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="8" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="9" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="10" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="11" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="12" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="13" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="14" applyProtection="1"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="2" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="5" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="3" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="4" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="5" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="6" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="7" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="8" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="9" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="10" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="11" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="12" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="13" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="14" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="pef5wmj2" xfId="1"/>
-    <cellStyle name="pef5wmj2_Alternate" xfId="2"/>
-    <cellStyle name="jpdyazsl" xfId="3"/>
-    <cellStyle name="jpdyazsl_Alternate" xfId="4"/>
-    <cellStyle name="dhhdhpr1" xfId="5"/>
-    <cellStyle name="dhhdhpr1_Alternate" xfId="6"/>
-    <cellStyle name="q4ky2sm1" xfId="7"/>
-    <cellStyle name="q4ky2sm1_Alternate" xfId="8"/>
-    <cellStyle name="csrcu51p" xfId="9"/>
-    <cellStyle name="csrcu51p_Alternate" xfId="10"/>
-    <cellStyle name="fk0cv1ow" xfId="11"/>
-    <cellStyle name="fk0cv1ow_Alternate" xfId="12"/>
-    <cellStyle name="df2domtw" xfId="13"/>
-    <cellStyle name="df2domtw_Alternate" xfId="14"/>
+    <cellStyle name="x0p4p3mv" xfId="1"/>
+    <cellStyle name="x0p4p3mv_Alternate" xfId="2"/>
+    <cellStyle name="ltlehg5y" xfId="3"/>
+    <cellStyle name="ltlehg5y_Alternate" xfId="4"/>
+    <cellStyle name="4thtuktm" xfId="5"/>
+    <cellStyle name="4thtuktm_Alternate" xfId="6"/>
+    <cellStyle name="2zcf5rl2" xfId="7"/>
+    <cellStyle name="2zcf5rl2_Alternate" xfId="8"/>
+    <cellStyle name="0g4sa4r2" xfId="9"/>
+    <cellStyle name="0g4sa4r2_Alternate" xfId="10"/>
+    <cellStyle name="gz5uil0f" xfId="11"/>
+    <cellStyle name="gz5uil0f_Alternate" xfId="12"/>
+    <cellStyle name="5kvsendc" xfId="13"/>
+    <cellStyle name="5kvsendc_Alternate" xfId="14"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -252,7 +210,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="3">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="0" t="s">
@@ -263,7 +221,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="1">
+      <c r="B4" s="15">
         <v>23</v>
       </c>
       <c r="C4" s="0" t="s">
@@ -274,7 +232,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="1">
+      <c r="B5" s="15">
         <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
@@ -285,7 +243,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="1">
+      <c r="B6" s="15">
         <v>11</v>
       </c>
       <c r="C6" s="0" t="s">
@@ -296,7 +254,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="1">
+      <c r="B7" s="15">
         <v>22</v>
       </c>
       <c r="C7" s="0" t="s">
@@ -307,7 +265,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="1">
+      <c r="B8" s="15">
         <v>52</v>
       </c>
       <c r="C8" s="0" t="s">
@@ -318,7 +276,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="1">
+      <c r="B9" s="15">
         <v>33</v>
       </c>
       <c r="C9" s="0" t="s">
@@ -329,7 +287,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="1">
+      <c r="B10" s="15">
         <v>8</v>
       </c>
       <c r="C10" s="0" t="s">
@@ -340,7 +298,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="1">
+      <c r="B11" s="15">
         <v>2</v>
       </c>
       <c r="C11" s="0" t="s">
@@ -351,7 +309,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="1">
+      <c r="B12" s="15">
         <v>12</v>
       </c>
       <c r="C12" s="0" t="s">
@@ -373,42 +331,42 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="16">
         <f>SUBTOTAL(3, 'Sheet1'!B4:B13)</f>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="16">
         <f>SUBTOTAL(9, 'Sheet1'!B4:B13)</f>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="16">
         <f>SUBTOTAL(1, 'Sheet1'!B4:B13)</f>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="16">
         <f>SUBTOTAL(4, 'Sheet1'!B4:B13)</f>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="16">
         <f>SUBTOTAL(5, 'Sheet1'!B4:B13)</f>
       </c>
     </row>

--- a/src/samples/NetCore/iXlsxWriter.ConsoleAppCoreAsync/Output/Sample-22/Sample-22.xlsx
+++ b/src/samples/NetCore/iXlsxWriter.ConsoleAppCoreAsync/Output/Sample-22/Sample-22.xlsx
@@ -182,20 +182,20 @@
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="x0p4p3mv" xfId="1"/>
-    <cellStyle name="x0p4p3mv_Alternate" xfId="2"/>
-    <cellStyle name="ltlehg5y" xfId="3"/>
-    <cellStyle name="ltlehg5y_Alternate" xfId="4"/>
-    <cellStyle name="4thtuktm" xfId="5"/>
-    <cellStyle name="4thtuktm_Alternate" xfId="6"/>
-    <cellStyle name="2zcf5rl2" xfId="7"/>
-    <cellStyle name="2zcf5rl2_Alternate" xfId="8"/>
-    <cellStyle name="0g4sa4r2" xfId="9"/>
-    <cellStyle name="0g4sa4r2_Alternate" xfId="10"/>
-    <cellStyle name="gz5uil0f" xfId="11"/>
-    <cellStyle name="gz5uil0f_Alternate" xfId="12"/>
-    <cellStyle name="5kvsendc" xfId="13"/>
-    <cellStyle name="5kvsendc_Alternate" xfId="14"/>
+    <cellStyle name="sjro1w1p" xfId="1"/>
+    <cellStyle name="sjro1w1p_Alternate" xfId="2"/>
+    <cellStyle name="4hljfivd" xfId="3"/>
+    <cellStyle name="4hljfivd_Alternate" xfId="4"/>
+    <cellStyle name="pyu4t021" xfId="5"/>
+    <cellStyle name="pyu4t021_Alternate" xfId="6"/>
+    <cellStyle name="ufieepty" xfId="7"/>
+    <cellStyle name="ufieepty_Alternate" xfId="8"/>
+    <cellStyle name="cap3mex0" xfId="9"/>
+    <cellStyle name="cap3mex0_Alternate" xfId="10"/>
+    <cellStyle name="4v4vicsv" xfId="11"/>
+    <cellStyle name="4v4vicsv_Alternate" xfId="12"/>
+    <cellStyle name="o4am4mbw" xfId="13"/>
+    <cellStyle name="o4am4mbw_Alternate" xfId="14"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
